--- a/WEEK 1/1.3-T Morongo's Payslip.xlsx
+++ b/WEEK 1/1.3-T Morongo's Payslip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c246762b4a926f5/Desktop/MCA 1ST SEM/LAB COUSE 1/WEEK 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c246762b4a926f5/Desktop/MCA 1ST SEM/LAB COURSE 1/WEEK 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048BFC99E72BA5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E7A88E-B1AE-4FA6-9A05-CE3E27655D35}"/>
@@ -183,23 +183,14 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -207,6 +198,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -228,6 +228,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -510,235 +514,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2">
         <v>42460</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2">
         <v>42490</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4">
         <v>31200</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <f>C6/12</f>
         <v>2600</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5">
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
         <f>C8*(8/100)</f>
         <v>208</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3">
         <f>6000/12</f>
         <v>500</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="5">
+      <c r="E9" s="9"/>
+      <c r="F9" s="12">
         <v>636.83000000000004</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3">
         <v>100</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5">
+      <c r="E10" s="9"/>
+      <c r="F10" s="12">
         <f>C8*(1/100)+C9</f>
         <v>526</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="5">
+      <c r="E11" s="10"/>
+      <c r="F11" s="12">
         <v>70</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="5">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12">
         <v>630</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3">
         <f>C8+C9+C10</f>
         <v>3200</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="5">
+      <c r="E13" s="10"/>
+      <c r="F13" s="12">
         <f>SUM(F8:F12)</f>
         <v>2070.83</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="12">
         <f>C13-F13</f>
         <v>1129.17</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="F8:G8"/>
@@ -755,6 +736,29 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{E7F6D8B5-5075-4F5A-9690-E9D741C87269}"/>
